--- a/Registration_Form_testcases_bugreports/Registration form.requirements .xlsx
+++ b/Registration_Form_testcases_bugreports/Registration form.requirements .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreishkadun/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreishkadun/Checklists_Testcases_Bugreports/Registration_Form_testcases_bugreports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4E7B61-2144-8348-BAD1-59914AE44232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287B6AC9-5322-174F-9084-9B497E34325B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="620" windowWidth="28040" windowHeight="16280" xr2:uid="{7F70DF24-6AB6-E546-B794-8A73769013CB}"/>
+    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16280" xr2:uid="{7F70DF24-6AB6-E546-B794-8A73769013CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="154">
   <si>
     <t>Site registration form requirements https://itcareer.pythonanywhere.com/</t>
   </si>
@@ -65,76 +65,31 @@
     <t>1.8</t>
   </si>
   <si>
-    <t>Допускается ввод спецсимволов, только -, _ , . (точка), пробел</t>
-  </si>
-  <si>
-    <t>Поле не регистрозависимое</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Поле обязательное для заполнения </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Допускается ввод только латинских символов </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Когда поле в фокусе "Placeholder" должен изчезнуть </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Copy - paste допускается </t>
-  </si>
-  <si>
-    <t xml:space="preserve">При клике по полю оно подсвечивается синим цветом, всплывающих подсказок нет </t>
-  </si>
-  <si>
     <t>1.10</t>
   </si>
   <si>
-    <t xml:space="preserve">Доускается ввод цифровых значений </t>
-  </si>
-  <si>
     <t>1.13</t>
   </si>
   <si>
-    <t xml:space="preserve">Значение в поле не может начинаться со спецсимволов, в т.ч. с пробела </t>
-  </si>
-  <si>
     <t>1.14</t>
   </si>
   <si>
-    <t xml:space="preserve">Placeholder поля должен содержать только его название и накаких других символов </t>
-  </si>
-  <si>
     <t xml:space="preserve">1.15 </t>
   </si>
   <si>
-    <t xml:space="preserve">Расширенные символы в поле недопустимы </t>
-  </si>
-  <si>
     <t>1.16</t>
   </si>
   <si>
-    <t>В поле недопустим ввод смайликов, эмодзи и т.д.</t>
-  </si>
-  <si>
     <t>1.17</t>
   </si>
   <si>
     <t>1.18</t>
   </si>
   <si>
-    <t xml:space="preserve">Не допустим ввод нескольких подряд разрешенных спецсимволов </t>
-  </si>
-  <si>
     <t>1.19</t>
   </si>
   <si>
-    <t xml:space="preserve">Не допустим ввод нецензурной лексики, выводится сообщение об ошибке </t>
-  </si>
-  <si>
     <t>1.20</t>
-  </si>
-  <si>
-    <t>Допустим ввод тривиальных значений типа QWERTY и т.д.</t>
   </si>
   <si>
     <t>1.21</t>
@@ -153,12 +108,6 @@
     <t>Name field</t>
   </si>
   <si>
-    <t>Поле фамилия содержит мин. - 2 символа, макс. - 128 символов</t>
-  </si>
-  <si>
-    <t>Поле имя содержит мин. - 2 символа, макс. - 128 символов</t>
-  </si>
-  <si>
     <t>1.23</t>
   </si>
   <si>
@@ -210,18 +159,12 @@
     <t xml:space="preserve">Email field </t>
   </si>
   <si>
-    <t>Обязательно должно содержать символы "@" и "."</t>
-  </si>
-  <si>
     <t>1.42</t>
   </si>
   <si>
     <t>1.43</t>
   </si>
   <si>
-    <t xml:space="preserve">Допустимы для ввода символы -, @, .(точка) все иные спецсимволы запрещены в т.ч. и пробел </t>
-  </si>
-  <si>
     <t>1.44</t>
   </si>
   <si>
@@ -246,24 +189,6 @@
     <t>1.51</t>
   </si>
   <si>
-    <t>Недопустим ввод 2-х символов @</t>
-  </si>
-  <si>
-    <t>Минимальное количество символов от  @ до последней точки - 2, максимальное - 32</t>
-  </si>
-  <si>
-    <t>Любой домен допустим</t>
-  </si>
-  <si>
-    <t>Запрещено вводить два и более спецсимвола подряд в т.ч. и разрешенных</t>
-  </si>
-  <si>
-    <t>Доменное имя может состоять из цифр</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Доменная зона не может состоять из цифр или содержать в себе цифры </t>
-  </si>
-  <si>
     <t>1.52</t>
   </si>
   <si>
@@ -285,24 +210,6 @@
     <t>1.58</t>
   </si>
   <si>
-    <t>Должно отображаться сообщение при попытке ввода уже существующего адреса</t>
-  </si>
-  <si>
-    <t>Разрешается ввод "." перед "@"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Адрес не может начинаться с тире или дефиса </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Адрес может состоять из цифр, кроме доменной зоны </t>
-  </si>
-  <si>
-    <t>В имени домена и доменной зоны недопустима кирилица</t>
-  </si>
-  <si>
-    <t>Поле обязательное для заполнения и должно быть обозначено символом *</t>
-  </si>
-  <si>
     <t>1.59</t>
   </si>
   <si>
@@ -312,12 +219,6 @@
     <t>1.60</t>
   </si>
   <si>
-    <t>В поле должен быть использован один из трех разрешенных спецсимволов, а именно: @, !, . (точка)</t>
-  </si>
-  <si>
-    <t>Пароль должен содержать как минимум одну цифру, одну строчную букву, одну прописную букву</t>
-  </si>
-  <si>
     <t>1.61</t>
   </si>
   <si>
@@ -336,36 +237,9 @@
     <t>1.66</t>
   </si>
   <si>
-    <t>Пароль должен состоять минимум из 8 символов, максимум из 16 символов</t>
-  </si>
-  <si>
-    <t>Допустимо вводить несколько спецсимволов подряд (ввод только разрешенных спецсимволов)</t>
-  </si>
-  <si>
-    <t>Запрещен ввод space (пробел)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Занчения в полях  Name, Surname, Password могут быть одинаковыми </t>
-  </si>
-  <si>
-    <t xml:space="preserve">При вводе недопустимых символов или вводе простого (тривиального) пароля должно отображаться всплывающее сообщения с подсказкой </t>
-  </si>
-  <si>
     <t>Допустимо copy- paste</t>
   </si>
   <si>
-    <t>Копирование, вырезание, вставка пароль может осуществляться сочетаниями клавиш ctrl+c, ctrl+x, ctrl+v</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Пароль может содержать только латинские символы </t>
-  </si>
-  <si>
-    <t xml:space="preserve">При перезагрузке страницы поле очищается </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Пароль может начинаться со спецсимволов </t>
-  </si>
-  <si>
     <t>1.67</t>
   </si>
   <si>
@@ -384,18 +258,6 @@
     <t>General requirements</t>
   </si>
   <si>
-    <t>Все поля очищаются от введенных значений при перезагрузке страницы</t>
-  </si>
-  <si>
-    <t>Переход на следующее поле можно осуществлять клавишей Tab</t>
-  </si>
-  <si>
-    <t>При наличии сообщения об ошибке после перезагрузки страницы оно исчезает</t>
-  </si>
-  <si>
-    <t>Должен присутствовать фавикон</t>
-  </si>
-  <si>
     <t>1.72</t>
   </si>
   <si>
@@ -444,64 +306,196 @@
     <t>1.87</t>
   </si>
   <si>
-    <t>Соединение осуществляется по протоколу HTTPS</t>
-  </si>
-  <si>
-    <t>При вводе в обязательные для заполннения поля валидных данных и нажатии кнопки  Submit отображается сообщение "Succes! Hello: Name Surname"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Поля Name, Password, Email - обязательные для заполнения, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рамка поля в которое введены невалидные данные после нажатия кнопки Submit подсвечивается красным, а также отображается сообщение об ошибке </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Название заголовка ITCareerToday web form расположено вверху по центру </t>
-  </si>
-  <si>
-    <t xml:space="preserve">При нажатии кнопки Submit в случае наличия невернозаполненных полей отображается сообщение об ошибке, неверно заполненные поля очищаются </t>
-  </si>
-  <si>
-    <t>Поле обязательное для заполнения</t>
-  </si>
-  <si>
-    <t>Не допустим ввод нецензурной лексики</t>
-  </si>
-  <si>
-    <t>Поле мо;ет принимать цифры, буквы, но не может иметь значение только из спецсимволов, в т.ч. разрешенных</t>
-  </si>
-  <si>
-    <t>Название вкладки в браузере должно соответствовать тем оцерациям, которые выполняет форма например "Registration Form"</t>
-  </si>
-  <si>
-    <t>Заголовок должен быть формы H2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Placeholders всех полей должны быть оформлены в одном стиле </t>
-  </si>
-  <si>
-    <t>Кнопка Submit расположена внизу по центру страницы, зеленого цвета, надпись "Submit" распожена по центру кнопки</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Валидация происходит по нажатию книпки Submit </t>
-  </si>
-  <si>
-    <t>Поле подсведичается синим цветом при нахождении поля в фокусе</t>
-  </si>
-  <si>
-    <t>Поле может принимать цифры, буквы, но не может иметь значение только из спецсимволов, в т.ч. разрешенных</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Допускается ввод цифровых значений </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Минимальное количество символов до @ - 4, максимальное - 64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Минимальное количество символов после последней точки - 2, максимальное - 16 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">При вводе символов, введеные симаолы скрываются булитами </t>
+    <t>The name field contains the min. - 2 characters, max. - 128 characters</t>
+  </si>
+  <si>
+    <t>Special characters are allowed, only -, _ , . (dot), space</t>
+  </si>
+  <si>
+    <t>The field is not case sensitive</t>
+  </si>
+  <si>
+    <t>Required field</t>
+  </si>
+  <si>
+    <t>Only Latin characters are allowed</t>
+  </si>
+  <si>
+    <t>When the field in focus "Placeholder" should disappear</t>
+  </si>
+  <si>
+    <t>Copy-paste allowed</t>
+  </si>
+  <si>
+    <t>When you click on the field, it is highlighted in blue, there are no tooltips</t>
+  </si>
+  <si>
+    <t>Entering numeric values</t>
+  </si>
+  <si>
+    <t>The value in the field cannot begin with special characters, incl. with a space</t>
+  </si>
+  <si>
+    <t>The field's placeholder must contain only its name and no other characters.</t>
+  </si>
+  <si>
+    <t>Extended characters in the field are not allowed</t>
+  </si>
+  <si>
+    <t>Entering emoticons, emoji, etc. is not allowed in the field.</t>
+  </si>
+  <si>
+    <t>It is not allowed to enter several allowed special characters in a row</t>
+  </si>
+  <si>
+    <t>The field can accept numbers, letters, but cannot have a value only from special characters, incl. permitted</t>
+  </si>
+  <si>
+    <t>We do not allow the introduction of obscene language</t>
+  </si>
+  <si>
+    <t>Let's enter trivial values like QWERTY, etc.</t>
+  </si>
+  <si>
+    <t>Cyrillic is not allowed in the domain name and domain zone</t>
+  </si>
+  <si>
+    <t>The last name field contains the min. - 2 characters, max. - 128 characters</t>
+  </si>
+  <si>
+    <t>Numeric values allowed</t>
+  </si>
+  <si>
+    <t>Entering obscene language is not allowed, an error message is displayed</t>
+  </si>
+  <si>
+    <t>It must contain the symbols "@" and "."</t>
+  </si>
+  <si>
+    <t>Any domain is allowed</t>
+  </si>
+  <si>
+    <t>The characters -, @, .(dot) are allowed for input; all other special characters are prohibited, incl. and space</t>
+  </si>
+  <si>
+    <t>Input of 2 characters @ is not allowed</t>
+  </si>
+  <si>
+    <t>The minimum number of characters before @ is 4, the maximum is 64</t>
+  </si>
+  <si>
+    <t>The minimum number of characters from @ to the last dot is 2, the maximum is 32</t>
+  </si>
+  <si>
+    <t>The minimum number of characters after the last dot is 2, the maximum is 16</t>
+  </si>
+  <si>
+    <t>It is forbidden to enter two or more special characters in a row, incl. and allowed</t>
+  </si>
+  <si>
+    <t>Domain name can consist of numbers</t>
+  </si>
+  <si>
+    <t>The domain zone cannot consist of numbers or contain numbers</t>
+  </si>
+  <si>
+    <t>A message should be displayed when trying to enter an already existing address</t>
+  </si>
+  <si>
+    <t>"." is allowed. before "@"</t>
+  </si>
+  <si>
+    <t>The address cannot start with a dash or hyphen</t>
+  </si>
+  <si>
+    <t>The address can consist of numbers, except for the domain zone</t>
+  </si>
+  <si>
+    <t>One of the three allowed special characters must be used in the field, namely: @, !, . (dot)</t>
+  </si>
+  <si>
+    <t>Password must contain at least one number, one lowercase letter, one uppercase letter</t>
+  </si>
+  <si>
+    <t>Password must be at least 8 characters, maximum 16 characters</t>
+  </si>
+  <si>
+    <t>It is allowed to enter several special characters in a row (entering only allowed special characters)</t>
+  </si>
+  <si>
+    <t>Entering space (space) is forbidden</t>
+  </si>
+  <si>
+    <t>Values in the fields Name, Surname, Password can be the same</t>
+  </si>
+  <si>
+    <t>When entering characters, the entered characters are hidden by bullets</t>
+  </si>
+  <si>
+    <t>When entering invalid characters or entering a simple (trivial) password, a pop-up message with a hint should be displayed</t>
+  </si>
+  <si>
+    <t>Copying, cutting, pasting the password can be done by pressing ctrl+c, ctrl+x, ctrl+v</t>
+  </si>
+  <si>
+    <t>Password can only contain latin characters</t>
+  </si>
+  <si>
+    <t>The field is cleared when the page is reloaded.</t>
+  </si>
+  <si>
+    <t>Password can start with special characters</t>
+  </si>
+  <si>
+    <t>All fields are cleared of entered values on page reload</t>
+  </si>
+  <si>
+    <t>Fields Name, Password, Email - required</t>
+  </si>
+  <si>
+    <t>You can move to the next field with the Tab key.</t>
+  </si>
+  <si>
+    <t>When you click the Submit button, if there are incorrectly filled fields, an error message is displayed, incorrectly filled fields are cleared</t>
+  </si>
+  <si>
+    <t>When you enter valid data in the required fields and click the Submit button, the message "Succes! Hello: Name Surname" is displayed</t>
+  </si>
+  <si>
+    <t>If there is an error message after reloading the page, it disappears</t>
+  </si>
+  <si>
+    <t>The frame of the field in which invalid data is entered after pressing the Submit button is highlighted in red, and an error message is also displayed</t>
+  </si>
+  <si>
+    <t>Placeholders of all fields must be in the same style</t>
+  </si>
+  <si>
+    <t>ITCareerToday web form header title is top centered</t>
+  </si>
+  <si>
+    <t>The name of the tab in the browser should correspond to the operations that the form performs, for example "Registration Form"</t>
+  </si>
+  <si>
+    <t>Favicon must be present</t>
+  </si>
+  <si>
+    <t>Title must be H2</t>
+  </si>
+  <si>
+    <t>The Submit button is located at the bottom center of the page, green, the inscription "Submit" is located in the center of the button</t>
+  </si>
+  <si>
+    <t>The connection is made using the HTTPS protocol</t>
+  </si>
+  <si>
+    <t>Validation occurs when the Submit button is pressed.</t>
+  </si>
+  <si>
+    <t>The field is highlighted in blue when the field is in focus.</t>
+  </si>
+  <si>
+    <t>The field is required and must be marked with *</t>
   </si>
 </sst>
 </file>
@@ -731,95 +725,11 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -843,10 +753,94 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1164,7 +1158,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE285A50-2D40-E147-A7B0-B514BB9E39EB}">
   <dimension ref="A1:H329"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
       <selection activeCell="B88" sqref="B88:H88"/>
     </sheetView>
   </sheetViews>
@@ -1174,1224 +1168,1224 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:8" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
+      <c r="A2" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
     </row>
     <row r="3" spans="1:8" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="45"/>
+      <c r="B3" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="17"/>
     </row>
     <row r="4" spans="1:8" ht="19" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
+      <c r="B4" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
     </row>
     <row r="5" spans="1:8" ht="19" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
+      <c r="B5" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
     </row>
     <row r="6" spans="1:8" ht="19" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
+      <c r="B6" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
     </row>
     <row r="7" spans="1:8" ht="19" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="35" t="s">
-        <v>142</v>
-      </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
+      <c r="B7" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
     </row>
     <row r="8" spans="1:8" ht="19" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
+      <c r="B8" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
     </row>
     <row r="9" spans="1:8" ht="19" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
+      <c r="B9" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
     </row>
     <row r="10" spans="1:8" ht="19" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
+      <c r="B10" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
     </row>
     <row r="11" spans="1:8" ht="19" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
+      <c r="B11" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
     </row>
     <row r="12" spans="1:8" ht="19" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
     </row>
     <row r="13" spans="1:8" ht="19" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
     </row>
     <row r="14" spans="1:8" ht="19" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
     </row>
     <row r="15" spans="1:8" ht="19" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
     </row>
     <row r="16" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
     </row>
     <row r="17" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
     </row>
     <row r="18" spans="1:8" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="48" t="s">
-        <v>151</v>
-      </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="47" t="s">
-        <v>143</v>
-      </c>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
     </row>
     <row r="20" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
     </row>
     <row r="21" spans="1:8" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
     </row>
     <row r="22" spans="1:8" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
-      <c r="B22" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="38"/>
+      <c r="B22" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="22"/>
     </row>
     <row r="23" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
+        <v>20</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
     </row>
     <row r="24" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
+        <v>24</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
     </row>
     <row r="25" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
+        <v>25</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
     </row>
     <row r="26" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
+        <v>26</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
     </row>
     <row r="27" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
+        <v>27</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
     </row>
     <row r="28" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
+        <v>28</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
     </row>
     <row r="29" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
+        <v>29</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
     </row>
     <row r="30" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
+        <v>30</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
     </row>
     <row r="31" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B31" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
+        <v>31</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
     </row>
     <row r="32" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
+        <v>32</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
     </row>
     <row r="33" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
+        <v>33</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
     </row>
     <row r="34" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B34" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
+        <v>34</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
     </row>
     <row r="35" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B35" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
+        <v>35</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
     </row>
     <row r="36" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B36" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
+        <v>36</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
     </row>
     <row r="37" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B37" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="28"/>
+        <v>37</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
     </row>
     <row r="38" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B38" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
+        <v>38</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
     </row>
     <row r="39" spans="1:8" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B39" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="29"/>
+        <v>39</v>
+      </c>
+      <c r="B39" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
     </row>
     <row r="40" spans="1:8" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
-      <c r="B40" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="32"/>
+      <c r="B40" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="30"/>
     </row>
     <row r="41" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B41" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
+        <v>41</v>
+      </c>
+      <c r="B41" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
     </row>
     <row r="42" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B42" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
+        <v>42</v>
+      </c>
+      <c r="B42" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
     </row>
     <row r="43" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B43" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
+        <v>43</v>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
     </row>
     <row r="44" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B44" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="27"/>
+        <v>44</v>
+      </c>
+      <c r="B44" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
     </row>
     <row r="45" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B45" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="27"/>
+        <v>45</v>
+      </c>
+      <c r="B45" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26"/>
     </row>
     <row r="46" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B46" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="C46" s="27"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="27"/>
+        <v>46</v>
+      </c>
+      <c r="B46" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="26"/>
     </row>
     <row r="47" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B47" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="27"/>
+        <v>47</v>
+      </c>
+      <c r="B47" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="26"/>
     </row>
     <row r="48" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B48" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="27"/>
+        <v>48</v>
+      </c>
+      <c r="B48" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="26"/>
     </row>
     <row r="49" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B49" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27"/>
+        <v>49</v>
+      </c>
+      <c r="B49" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="26"/>
     </row>
     <row r="50" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B50" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="C50" s="27"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="27"/>
+        <v>50</v>
+      </c>
+      <c r="B50" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26"/>
     </row>
     <row r="51" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B51" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="27"/>
+        <v>51</v>
+      </c>
+      <c r="B51" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="C51" s="26"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="26"/>
     </row>
     <row r="52" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B52" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="C52" s="27"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
+        <v>52</v>
+      </c>
+      <c r="B52" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="C52" s="26"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="26"/>
     </row>
     <row r="53" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B53" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="C53" s="27"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="27"/>
-      <c r="H53" s="27"/>
+        <v>53</v>
+      </c>
+      <c r="B53" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="C53" s="26"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="26"/>
     </row>
     <row r="54" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B54" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="C54" s="27"/>
-      <c r="D54" s="27"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="27"/>
+        <v>54</v>
+      </c>
+      <c r="B54" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="C54" s="26"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="26"/>
     </row>
     <row r="55" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B55" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="27"/>
-      <c r="H55" s="27"/>
+        <v>55</v>
+      </c>
+      <c r="B55" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="C55" s="26"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="26"/>
     </row>
     <row r="56" spans="1:8" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B56" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="C56" s="27"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="27"/>
-      <c r="H56" s="27"/>
+        <v>56</v>
+      </c>
+      <c r="B56" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="C56" s="26"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="26"/>
     </row>
     <row r="57" spans="1:8" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
-      <c r="B57" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="C57" s="23"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="23"/>
-      <c r="H57" s="24"/>
+      <c r="B57" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C57" s="33"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="33"/>
+      <c r="G57" s="33"/>
+      <c r="H57" s="34"/>
     </row>
     <row r="58" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B58" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="26"/>
+        <v>57</v>
+      </c>
+      <c r="B58" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="C58" s="36"/>
+      <c r="D58" s="36"/>
+      <c r="E58" s="36"/>
+      <c r="F58" s="36"/>
+      <c r="G58" s="36"/>
+      <c r="H58" s="36"/>
     </row>
     <row r="59" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B59" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="C59" s="21"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="21"/>
-      <c r="H59" s="21"/>
+        <v>58</v>
+      </c>
+      <c r="B59" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="C59" s="37"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="37"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="37"/>
     </row>
     <row r="60" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B60" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="C60" s="21"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="21"/>
-      <c r="H60" s="21"/>
+        <v>60</v>
+      </c>
+      <c r="B60" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="C60" s="37"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="37"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="37"/>
     </row>
     <row r="61" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B61" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="C61" s="21"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="21"/>
-      <c r="H61" s="21"/>
+        <v>61</v>
+      </c>
+      <c r="B61" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="C61" s="37"/>
+      <c r="D61" s="37"/>
+      <c r="E61" s="37"/>
+      <c r="F61" s="37"/>
+      <c r="G61" s="37"/>
+      <c r="H61" s="37"/>
     </row>
     <row r="62" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B62" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="C62" s="21"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="21"/>
-      <c r="G62" s="21"/>
-      <c r="H62" s="21"/>
+        <v>62</v>
+      </c>
+      <c r="B62" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="C62" s="37"/>
+      <c r="D62" s="37"/>
+      <c r="E62" s="37"/>
+      <c r="F62" s="37"/>
+      <c r="G62" s="37"/>
+      <c r="H62" s="37"/>
     </row>
     <row r="63" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B63" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="C63" s="21"/>
-      <c r="D63" s="21"/>
-      <c r="E63" s="21"/>
-      <c r="F63" s="21"/>
-      <c r="G63" s="21"/>
-      <c r="H63" s="21"/>
+        <v>63</v>
+      </c>
+      <c r="B63" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="C63" s="37"/>
+      <c r="D63" s="37"/>
+      <c r="E63" s="37"/>
+      <c r="F63" s="37"/>
+      <c r="G63" s="37"/>
+      <c r="H63" s="37"/>
     </row>
     <row r="64" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B64" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="C64" s="21"/>
-      <c r="D64" s="21"/>
-      <c r="E64" s="21"/>
-      <c r="F64" s="21"/>
-      <c r="G64" s="21"/>
-      <c r="H64" s="21"/>
+        <v>64</v>
+      </c>
+      <c r="B64" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="C64" s="37"/>
+      <c r="D64" s="37"/>
+      <c r="E64" s="37"/>
+      <c r="F64" s="37"/>
+      <c r="G64" s="37"/>
+      <c r="H64" s="37"/>
     </row>
     <row r="65" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B65" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="C65" s="20"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="20"/>
-      <c r="G65" s="20"/>
-      <c r="H65" s="20"/>
+        <v>65</v>
+      </c>
+      <c r="B65" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="C65" s="38"/>
+      <c r="D65" s="38"/>
+      <c r="E65" s="38"/>
+      <c r="F65" s="38"/>
+      <c r="G65" s="38"/>
+      <c r="H65" s="38"/>
     </row>
     <row r="66" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B66" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="C66" s="21"/>
-      <c r="D66" s="21"/>
-      <c r="E66" s="21"/>
-      <c r="F66" s="21"/>
-      <c r="G66" s="21"/>
-      <c r="H66" s="21"/>
+        <v>66</v>
+      </c>
+      <c r="B66" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="C66" s="37"/>
+      <c r="D66" s="37"/>
+      <c r="E66" s="37"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="37"/>
+      <c r="H66" s="37"/>
     </row>
     <row r="67" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B67" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="C67" s="21"/>
-      <c r="D67" s="21"/>
-      <c r="E67" s="21"/>
-      <c r="F67" s="21"/>
-      <c r="G67" s="21"/>
-      <c r="H67" s="21"/>
+        <v>68</v>
+      </c>
+      <c r="B67" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="C67" s="37"/>
+      <c r="D67" s="37"/>
+      <c r="E67" s="37"/>
+      <c r="F67" s="37"/>
+      <c r="G67" s="37"/>
+      <c r="H67" s="37"/>
     </row>
     <row r="68" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B68" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="C68" s="21"/>
-      <c r="D68" s="21"/>
-      <c r="E68" s="21"/>
-      <c r="F68" s="21"/>
-      <c r="G68" s="21"/>
-      <c r="H68" s="21"/>
+        <v>69</v>
+      </c>
+      <c r="B68" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="C68" s="37"/>
+      <c r="D68" s="37"/>
+      <c r="E68" s="37"/>
+      <c r="F68" s="37"/>
+      <c r="G68" s="37"/>
+      <c r="H68" s="37"/>
     </row>
     <row r="69" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B69" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="C69" s="21"/>
-      <c r="D69" s="21"/>
-      <c r="E69" s="21"/>
-      <c r="F69" s="21"/>
-      <c r="G69" s="21"/>
-      <c r="H69" s="21"/>
+        <v>70</v>
+      </c>
+      <c r="B69" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="C69" s="37"/>
+      <c r="D69" s="37"/>
+      <c r="E69" s="37"/>
+      <c r="F69" s="37"/>
+      <c r="G69" s="37"/>
+      <c r="H69" s="37"/>
     </row>
     <row r="70" spans="1:8" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B70" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="15"/>
-      <c r="G70" s="15"/>
-      <c r="H70" s="15"/>
+        <v>71</v>
+      </c>
+      <c r="B70" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="C70" s="41"/>
+      <c r="D70" s="41"/>
+      <c r="E70" s="41"/>
+      <c r="F70" s="41"/>
+      <c r="G70" s="41"/>
+      <c r="H70" s="41"/>
     </row>
     <row r="71" spans="1:8" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
-      <c r="B71" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="C71" s="17"/>
-      <c r="D71" s="17"/>
-      <c r="E71" s="17"/>
-      <c r="F71" s="17"/>
-      <c r="G71" s="17"/>
-      <c r="H71" s="18"/>
+      <c r="B71" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="C71" s="43"/>
+      <c r="D71" s="43"/>
+      <c r="E71" s="43"/>
+      <c r="F71" s="43"/>
+      <c r="G71" s="43"/>
+      <c r="H71" s="44"/>
     </row>
     <row r="72" spans="1:8" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B72" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="C72" s="19"/>
-      <c r="D72" s="19"/>
-      <c r="E72" s="19"/>
-      <c r="F72" s="19"/>
-      <c r="G72" s="19"/>
-      <c r="H72" s="19"/>
+        <v>72</v>
+      </c>
+      <c r="B72" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="C72" s="45"/>
+      <c r="D72" s="45"/>
+      <c r="E72" s="45"/>
+      <c r="F72" s="45"/>
+      <c r="G72" s="45"/>
+      <c r="H72" s="45"/>
     </row>
     <row r="73" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B73" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="C73" s="13"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="13"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="13"/>
-      <c r="H73" s="13"/>
+      <c r="C73" s="40"/>
+      <c r="D73" s="40"/>
+      <c r="E73" s="40"/>
+      <c r="F73" s="40"/>
+      <c r="G73" s="40"/>
+      <c r="H73" s="40"/>
     </row>
     <row r="74" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="B74" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="C74" s="13"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="13"/>
-      <c r="F74" s="13"/>
-      <c r="G74" s="13"/>
-      <c r="H74" s="13"/>
+        <v>75</v>
+      </c>
+      <c r="B74" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="C74" s="40"/>
+      <c r="D74" s="40"/>
+      <c r="E74" s="40"/>
+      <c r="F74" s="40"/>
+      <c r="G74" s="40"/>
+      <c r="H74" s="40"/>
     </row>
     <row r="75" spans="1:8" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B75" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="C75" s="11"/>
-      <c r="D75" s="11"/>
-      <c r="E75" s="11"/>
-      <c r="F75" s="11"/>
-      <c r="G75" s="11"/>
-      <c r="H75" s="11"/>
+        <v>76</v>
+      </c>
+      <c r="B75" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="C75" s="39"/>
+      <c r="D75" s="39"/>
+      <c r="E75" s="39"/>
+      <c r="F75" s="39"/>
+      <c r="G75" s="39"/>
+      <c r="H75" s="39"/>
     </row>
     <row r="76" spans="1:8" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B76" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="C76" s="11"/>
-      <c r="D76" s="11"/>
-      <c r="E76" s="11"/>
-      <c r="F76" s="11"/>
-      <c r="G76" s="11"/>
-      <c r="H76" s="11"/>
+        <v>77</v>
+      </c>
+      <c r="B76" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="C76" s="39"/>
+      <c r="D76" s="39"/>
+      <c r="E76" s="39"/>
+      <c r="F76" s="39"/>
+      <c r="G76" s="39"/>
+      <c r="H76" s="39"/>
     </row>
     <row r="77" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B77" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C77" s="13"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="13"/>
-      <c r="F77" s="13"/>
-      <c r="G77" s="13"/>
-      <c r="H77" s="13"/>
+        <v>78</v>
+      </c>
+      <c r="B77" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="C77" s="40"/>
+      <c r="D77" s="40"/>
+      <c r="E77" s="40"/>
+      <c r="F77" s="40"/>
+      <c r="G77" s="40"/>
+      <c r="H77" s="40"/>
     </row>
     <row r="78" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="B78" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="C78" s="11"/>
-      <c r="D78" s="11"/>
-      <c r="E78" s="11"/>
-      <c r="F78" s="11"/>
-      <c r="G78" s="11"/>
-      <c r="H78" s="11"/>
+        <v>79</v>
+      </c>
+      <c r="B78" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="C78" s="39"/>
+      <c r="D78" s="39"/>
+      <c r="E78" s="39"/>
+      <c r="F78" s="39"/>
+      <c r="G78" s="39"/>
+      <c r="H78" s="39"/>
     </row>
     <row r="79" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B79" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="C79" s="13"/>
-      <c r="D79" s="13"/>
-      <c r="E79" s="13"/>
-      <c r="F79" s="13"/>
-      <c r="G79" s="13"/>
-      <c r="H79" s="13"/>
+        <v>80</v>
+      </c>
+      <c r="B79" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="C79" s="40"/>
+      <c r="D79" s="40"/>
+      <c r="E79" s="40"/>
+      <c r="F79" s="40"/>
+      <c r="G79" s="40"/>
+      <c r="H79" s="40"/>
     </row>
     <row r="80" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="B80" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="C80" s="13"/>
-      <c r="D80" s="13"/>
-      <c r="E80" s="13"/>
-      <c r="F80" s="13"/>
-      <c r="G80" s="13"/>
-      <c r="H80" s="13"/>
+        <v>81</v>
+      </c>
+      <c r="B80" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="C80" s="40"/>
+      <c r="D80" s="40"/>
+      <c r="E80" s="40"/>
+      <c r="F80" s="40"/>
+      <c r="G80" s="40"/>
+      <c r="H80" s="40"/>
     </row>
     <row r="81" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="B81" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="C81" s="11"/>
-      <c r="D81" s="11"/>
-      <c r="E81" s="11"/>
-      <c r="F81" s="11"/>
-      <c r="G81" s="11"/>
-      <c r="H81" s="11"/>
+        <v>82</v>
+      </c>
+      <c r="B81" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="C81" s="39"/>
+      <c r="D81" s="39"/>
+      <c r="E81" s="39"/>
+      <c r="F81" s="39"/>
+      <c r="G81" s="39"/>
+      <c r="H81" s="39"/>
     </row>
     <row r="82" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B82" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="C82" s="13"/>
-      <c r="D82" s="13"/>
-      <c r="E82" s="13"/>
-      <c r="F82" s="13"/>
-      <c r="G82" s="13"/>
-      <c r="H82" s="13"/>
+        <v>83</v>
+      </c>
+      <c r="B82" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="C82" s="40"/>
+      <c r="D82" s="40"/>
+      <c r="E82" s="40"/>
+      <c r="F82" s="40"/>
+      <c r="G82" s="40"/>
+      <c r="H82" s="40"/>
     </row>
     <row r="83" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B83" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="C83" s="13"/>
-      <c r="D83" s="13"/>
-      <c r="E83" s="13"/>
-      <c r="F83" s="13"/>
-      <c r="G83" s="13"/>
-      <c r="H83" s="13"/>
+        <v>84</v>
+      </c>
+      <c r="B83" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="C83" s="40"/>
+      <c r="D83" s="40"/>
+      <c r="E83" s="40"/>
+      <c r="F83" s="40"/>
+      <c r="G83" s="40"/>
+      <c r="H83" s="40"/>
     </row>
     <row r="84" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B84" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="C84" s="11"/>
-      <c r="D84" s="11"/>
-      <c r="E84" s="11"/>
-      <c r="F84" s="11"/>
-      <c r="G84" s="11"/>
-      <c r="H84" s="11"/>
+        <v>85</v>
+      </c>
+      <c r="B84" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="C84" s="39"/>
+      <c r="D84" s="39"/>
+      <c r="E84" s="39"/>
+      <c r="F84" s="39"/>
+      <c r="G84" s="39"/>
+      <c r="H84" s="39"/>
     </row>
     <row r="85" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B85" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="C85" s="13"/>
-      <c r="D85" s="13"/>
-      <c r="E85" s="13"/>
-      <c r="F85" s="13"/>
-      <c r="G85" s="13"/>
-      <c r="H85" s="13"/>
+        <v>86</v>
+      </c>
+      <c r="B85" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="C85" s="40"/>
+      <c r="D85" s="40"/>
+      <c r="E85" s="40"/>
+      <c r="F85" s="40"/>
+      <c r="G85" s="40"/>
+      <c r="H85" s="40"/>
     </row>
     <row r="86" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B86" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="C86" s="12"/>
-      <c r="D86" s="12"/>
-      <c r="E86" s="12"/>
-      <c r="F86" s="12"/>
-      <c r="G86" s="12"/>
-      <c r="H86" s="12"/>
+        <v>87</v>
+      </c>
+      <c r="B86" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="C86" s="47"/>
+      <c r="D86" s="47"/>
+      <c r="E86" s="47"/>
+      <c r="F86" s="47"/>
+      <c r="G86" s="47"/>
+      <c r="H86" s="47"/>
     </row>
     <row r="87" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B87" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
-      <c r="G87" s="14"/>
-      <c r="H87" s="14"/>
+        <v>88</v>
+      </c>
+      <c r="B87" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="C87" s="48"/>
+      <c r="D87" s="48"/>
+      <c r="E87" s="48"/>
+      <c r="F87" s="48"/>
+      <c r="G87" s="48"/>
+      <c r="H87" s="48"/>
     </row>
     <row r="88" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="B88" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C88" s="10"/>
-      <c r="D88" s="10"/>
-      <c r="E88" s="10"/>
-      <c r="F88" s="10"/>
-      <c r="G88" s="10"/>
-      <c r="H88" s="10"/>
+        <v>89</v>
+      </c>
+      <c r="B88" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="C88" s="46"/>
+      <c r="D88" s="46"/>
+      <c r="E88" s="46"/>
+      <c r="F88" s="46"/>
+      <c r="G88" s="46"/>
+      <c r="H88" s="46"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
@@ -4742,49 +4736,35 @@
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="B37:H37"/>
-    <mergeCell ref="B46:H46"/>
-    <mergeCell ref="B47:H47"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="B40:H40"/>
-    <mergeCell ref="B41:H41"/>
-    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="B88:H88"/>
+    <mergeCell ref="B84:H84"/>
+    <mergeCell ref="B86:H86"/>
+    <mergeCell ref="B85:H85"/>
+    <mergeCell ref="B87:H87"/>
+    <mergeCell ref="B79:H79"/>
+    <mergeCell ref="B80:H80"/>
+    <mergeCell ref="B81:H81"/>
+    <mergeCell ref="B82:H82"/>
+    <mergeCell ref="B83:H83"/>
+    <mergeCell ref="B75:H75"/>
+    <mergeCell ref="B76:H76"/>
+    <mergeCell ref="B77:H77"/>
+    <mergeCell ref="B78:H78"/>
+    <mergeCell ref="B70:H70"/>
+    <mergeCell ref="B71:H71"/>
+    <mergeCell ref="B72:H72"/>
+    <mergeCell ref="B73:H73"/>
+    <mergeCell ref="B74:H74"/>
+    <mergeCell ref="B65:H65"/>
+    <mergeCell ref="B66:H66"/>
+    <mergeCell ref="B67:H67"/>
+    <mergeCell ref="B68:H68"/>
+    <mergeCell ref="B69:H69"/>
+    <mergeCell ref="B60:H60"/>
+    <mergeCell ref="B61:H61"/>
+    <mergeCell ref="B62:H62"/>
+    <mergeCell ref="B63:H63"/>
+    <mergeCell ref="B64:H64"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B21:H21"/>
     <mergeCell ref="B58:H58"/>
@@ -4801,35 +4781,49 @@
     <mergeCell ref="B43:H43"/>
     <mergeCell ref="B44:H44"/>
     <mergeCell ref="B45:H45"/>
-    <mergeCell ref="B60:H60"/>
-    <mergeCell ref="B61:H61"/>
-    <mergeCell ref="B62:H62"/>
-    <mergeCell ref="B63:H63"/>
-    <mergeCell ref="B64:H64"/>
-    <mergeCell ref="B65:H65"/>
-    <mergeCell ref="B66:H66"/>
-    <mergeCell ref="B67:H67"/>
-    <mergeCell ref="B68:H68"/>
-    <mergeCell ref="B69:H69"/>
-    <mergeCell ref="B75:H75"/>
-    <mergeCell ref="B76:H76"/>
-    <mergeCell ref="B77:H77"/>
-    <mergeCell ref="B78:H78"/>
-    <mergeCell ref="B70:H70"/>
-    <mergeCell ref="B71:H71"/>
-    <mergeCell ref="B72:H72"/>
-    <mergeCell ref="B73:H73"/>
-    <mergeCell ref="B74:H74"/>
-    <mergeCell ref="B79:H79"/>
-    <mergeCell ref="B80:H80"/>
-    <mergeCell ref="B81:H81"/>
-    <mergeCell ref="B82:H82"/>
-    <mergeCell ref="B83:H83"/>
-    <mergeCell ref="B88:H88"/>
-    <mergeCell ref="B84:H84"/>
-    <mergeCell ref="B86:H86"/>
-    <mergeCell ref="B85:H85"/>
-    <mergeCell ref="B87:H87"/>
+    <mergeCell ref="B46:H46"/>
+    <mergeCell ref="B47:H47"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B13:H13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
